--- a/src/main/resources/static/excel/月报模板20231007.xlsx
+++ b/src/main/resources/static/excel/月报模板20231007.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wg\Documents\海油国际设备设施完整性\oss\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\java-project\wg\excel-boniu\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D23E8B1-E8E1-4889-BCF5-F28EC66D27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223356E4-A1DE-4A2B-A846-3E5DBCE30180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI指标" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="350">
   <si>
     <t>中国海洋石油国际有限公司</t>
   </si>
@@ -264,12 +264,6 @@
   </si>
   <si>
     <t>单个设施修复成本</t>
-  </si>
-  <si>
-    <t>本月事件发生数量</t>
-  </si>
-  <si>
-    <t>上月事件发生数量</t>
   </si>
   <si>
     <t>年度累计事件发生数量</t>
@@ -1311,6 +1305,18 @@
   </si>
   <si>
     <t>检验检测计划及跟踪记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月事件发生数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月事件发生数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2183,7 +2189,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -2206,7 +2212,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -2222,10 +2228,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -2447,7 +2453,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -2467,13 +2473,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>19</v>
@@ -2489,7 +2495,7 @@
     </row>
     <row r="4" spans="1:13" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -2515,34 +2521,34 @@
         <v>16</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>281</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="F5" s="69" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="69" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>282</v>
-      </c>
-      <c r="I5" s="28" t="s">
+      <c r="K5" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="K5" s="69" t="s">
+      <c r="M5" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="47" customFormat="1" ht="15">
@@ -3191,7 +3197,7 @@
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -3232,13 +3238,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>19</v>
@@ -3277,7 +3283,7 @@
     </row>
     <row r="4" spans="1:34" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -3333,88 +3339,88 @@
         <v>25</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H5" s="69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="K5" s="69" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="69" t="s">
+      <c r="M5" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="L5" s="69" t="s">
+      <c r="N5" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="O5" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="S5" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T5" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="R5" s="28" t="s">
+      <c r="U5" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="S5" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="T5" s="28" t="s">
+      <c r="V5" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="W5" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="X5" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="Y5" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="Z5" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="Y5" s="28" t="s">
+      <c r="AA5" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="Z5" s="28" t="s">
+      <c r="AB5" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="AA5" s="28" t="s">
+      <c r="AC5" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AD5" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AE5" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="AD5" s="28" t="s">
+      <c r="AF5" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AG5" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AH5" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH5" s="28" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:34" s="47" customFormat="1" ht="15">
@@ -4799,7 +4805,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -4825,13 +4831,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>19</v>
@@ -4855,7 +4861,7 @@
     </row>
     <row r="4" spans="1:19" ht="24.9" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -4896,25 +4902,25 @@
         <v>26</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="K5" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="M5" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="M5" s="28" t="s">
-        <v>261</v>
       </c>
       <c r="N5" s="29"/>
     </row>
@@ -5325,7 +5331,7 @@
     </row>
     <row r="25" spans="1:20" ht="24.9" customHeight="1">
       <c r="A25" s="97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
@@ -5367,46 +5373,46 @@
         <v>26</v>
       </c>
       <c r="G26" s="78" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H26" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="L26" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="K26" s="78" t="s">
+      <c r="M26" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="L26" s="78" t="s">
+      <c r="N26" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="M26" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="N26" s="78" t="s">
-        <v>330</v>
-      </c>
       <c r="O26" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q26" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="P26" s="28" t="s">
+      <c r="R26" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="Q26" s="28" t="s">
+      <c r="S26" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="R26" s="28" t="s">
-        <v>266</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>267</v>
-      </c>
       <c r="T26" s="69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15">
@@ -5849,8 +5855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1DB2DF-8D98-41B2-AE8B-B8ECFBCA1EF1}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5897,7 +5903,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -5923,13 +5929,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>19</v>
@@ -5953,7 +5959,7 @@
     </row>
     <row r="4" spans="1:19" ht="15.6">
       <c r="A4" s="97" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -5994,22 +6000,22 @@
         <v>26</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H5" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="K5" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>334</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="L5" s="28" t="s">
-        <v>336</v>
       </c>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
@@ -6421,7 +6427,7 @@
     </row>
     <row r="25" spans="1:26" ht="15.6">
       <c r="A25" s="110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -6463,7 +6469,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F26" s="28" t="s">
         <v>25</v>
@@ -6472,61 +6478,61 @@
         <v>26</v>
       </c>
       <c r="H26" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="J26" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="K26" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="J26" s="28" t="s">
+      <c r="L26" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="M26" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O26" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="T26" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="U26" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="V26" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="M26" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="N26" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="O26" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q26" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="T26" s="28" t="s">
+      <c r="W26" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="U26" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="V26" s="28" t="s">
+      <c r="X26" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="W26" s="28" t="s">
+      <c r="Y26" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="Z26" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="Y26" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z26" s="28" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15">
@@ -7083,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692B93AA-A8FC-4A93-AA6B-98F9E14345C0}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -7124,7 +7130,7 @@
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1">
       <c r="A2" s="87" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -7148,10 +7154,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -7206,7 +7212,7 @@
         <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>27</v>
@@ -7477,7 +7483,7 @@
         <v>26</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>27</v>
@@ -7500,7 +7506,9 @@
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A20" s="23"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -7515,7 +7523,9 @@
     </row>
     <row r="21" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A21" s="23"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -7530,7 +7540,9 @@
     </row>
     <row r="22" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A22" s="23"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -7545,7 +7557,9 @@
     </row>
     <row r="23" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
@@ -7560,7 +7574,9 @@
     </row>
     <row r="24" spans="1:14" s="16" customFormat="1" ht="15">
       <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -7674,14 +7690,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA48247-6186-489E-9218-BCD61105A38C}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="25" customWidth="1"/>
+    <col min="3" max="4" width="13.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.109375" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.77734375" style="25" customWidth="1"/>
@@ -7741,7 +7758,7 @@
     </row>
     <row r="2" spans="1:30" s="26" customFormat="1" ht="14.7" customHeight="1">
       <c r="A2" s="87" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -7759,10 +7776,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -7775,7 +7792,7 @@
     </row>
     <row r="4" spans="1:30" s="26" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -7802,13 +7819,13 @@
         <v>46</v>
       </c>
       <c r="F5" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
@@ -7835,12 +7852,18 @@
     </row>
     <row r="6" spans="1:30" s="26" customFormat="1" ht="15">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:30" s="26" customFormat="1" ht="15">
@@ -7925,7 +7948,7 @@
     </row>
     <row r="15" spans="1:30" s="26" customFormat="1">
       <c r="A15" s="83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
@@ -7990,7 +8013,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>17</v>
@@ -7999,7 +8022,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>45</v>
@@ -8011,16 +8034,16 @@
         <v>47</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N18" s="28" t="s">
         <v>48</v>
       </c>
       <c r="O18" s="75" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P18" s="28" t="s">
         <v>49</v>
@@ -8068,9 +8091,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:30" s="26" customFormat="1" ht="15">
+    <row r="19" spans="1:30" s="26" customFormat="1" ht="30">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -8090,10 +8115,10 @@
         <v>33</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -8108,7 +8133,9 @@
     </row>
     <row r="20" spans="1:30" s="26" customFormat="1" ht="15">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="20" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -8492,7 +8519,7 @@
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1">
       <c r="A34" s="93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -8505,19 +8532,19 @@
         <v>37</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C35" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="F35" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8617,24 +8644,24 @@
       <c r="E1" s="82"/>
       <c r="F1" s="82"/>
       <c r="L1" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M1" s="37" t="s">
         <v>20</v>
       </c>
       <c r="N1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="O1" s="37" t="s">
-        <v>91</v>
-      </c>
       <c r="P1" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -8647,16 +8674,16 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="M2" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="P2" s="38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -8676,10 +8703,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -8694,16 +8721,16 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
@@ -8731,16 +8758,16 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P4" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -8757,19 +8784,19 @@
         <v>37</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>85</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -8778,16 +8805,16 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P5" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -8804,7 +8831,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8817,16 +8844,16 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -8843,7 +8870,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -8856,16 +8883,16 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P7" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -8882,7 +8909,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -8895,16 +8922,16 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P8" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -8921,7 +8948,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -8934,16 +8961,16 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P9" s="38" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -8960,7 +8987,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -8973,16 +9000,16 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P10" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
@@ -8999,7 +9026,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -9012,16 +9039,16 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P11" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
@@ -9038,7 +9065,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -9051,16 +9078,16 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P12" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
@@ -9077,7 +9104,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -9090,14 +9117,14 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
@@ -9114,7 +9141,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -9130,7 +9157,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
@@ -9147,7 +9174,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -9178,7 +9205,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -9209,7 +9236,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -9319,7 +9346,7 @@
     <row r="21" spans="1:25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -9347,7 +9374,7 @@
     </row>
     <row r="22" spans="1:25" ht="54" customHeight="1">
       <c r="A22" s="99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
@@ -9403,7 +9430,7 @@
     </row>
     <row r="24" spans="1:25" ht="31.2" customHeight="1">
       <c r="A24" s="97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" s="97"/>
       <c r="C24" s="97"/>
@@ -9438,13 +9465,13 @@
         <v>14</v>
       </c>
       <c r="C25" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="F25" s="31" t="s">
         <v>17</v>
@@ -9453,25 +9480,25 @@
         <v>18</v>
       </c>
       <c r="H25" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="L25" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25" s="31" t="s">
+      <c r="M25" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="N25" s="31" t="s">
         <v>80</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>82</v>
       </c>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
@@ -9709,7 +9736,7 @@
     </row>
     <row r="34" spans="1:25" s="36" customFormat="1">
       <c r="A34" s="98" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
@@ -10075,7 +10102,7 @@
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1">
       <c r="A2" s="102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -10105,10 +10132,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -10133,7 +10160,7 @@
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -10159,19 +10186,19 @@
         <v>16</v>
       </c>
       <c r="E5" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="H5" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>122</v>
-      </c>
       <c r="I5" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>3</v>
@@ -10268,7 +10295,7 @@
     <row r="13" spans="1:20" s="12" customFormat="1">
       <c r="A13" s="4"/>
       <c r="B13" s="83" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="83"/>
       <c r="D13" s="83"/>
@@ -10302,7 +10329,7 @@
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" ht="27" customHeight="1">
       <c r="A15" s="97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="97"/>
       <c r="C15" s="97"/>
@@ -10338,10 +10365,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>18</v>
@@ -10350,40 +10377,40 @@
         <v>25</v>
       </c>
       <c r="I16" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>204</v>
-      </c>
       <c r="L16" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="M16" s="31" t="s">
+      <c r="O16" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="P16" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="Q16" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="31" t="s">
-        <v>115</v>
       </c>
       <c r="R16" s="31" t="s">
         <v>42</v>
       </c>
       <c r="S16" s="31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="T16" s="31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="15">
@@ -10655,7 +10682,7 @@
     </row>
     <row r="2" spans="1:47">
       <c r="A2" s="106" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="106"/>
       <c r="C2" s="106"/>
@@ -10712,10 +10739,10 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -10767,7 +10794,7 @@
     </row>
     <row r="4" spans="1:47" ht="27.9" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -10821,10 +10848,10 @@
         <v>37</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>22</v>
@@ -10836,85 +10863,85 @@
         <v>23</v>
       </c>
       <c r="G5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="L5" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="M5" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="O5" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="P5" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="Q5" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="R5" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="S5" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="R5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="V5" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="U5" s="32" t="s">
+      <c r="W5" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="V5" s="32" t="s">
+      <c r="X5" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="Y5" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="X5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="Y5" s="32" t="s">
+      <c r="AA5" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="AB5" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="AA5" s="32" t="s">
+      <c r="AC5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="AB5" s="32" t="s">
+      <c r="AD5" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="AC5" s="32" t="s">
+      <c r="AE5" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="AD5" s="32" t="s">
+      <c r="AF5" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AG5" s="32" t="s">
         <v>155</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG5" s="32" t="s">
-        <v>157</v>
       </c>
       <c r="AH5" s="32" t="s">
         <v>42</v>
@@ -10938,10 +10965,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D6" s="77" t="s">
         <v>14</v>
@@ -10953,119 +10980,119 @@
         <v>15</v>
       </c>
       <c r="G6" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>287</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>304</v>
+      </c>
+      <c r="M6" s="77" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" s="77" t="s">
         <v>291</v>
       </c>
-      <c r="H6" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>304</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>306</v>
-      </c>
-      <c r="M6" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="N6" s="77" t="s">
+      <c r="O6" s="77" t="s">
+        <v>292</v>
+      </c>
+      <c r="P6" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="O6" s="77" t="s">
+      <c r="Q6" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="P6" s="77" t="s">
+      <c r="R6" s="77" t="s">
         <v>295</v>
-      </c>
-      <c r="Q6" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="R6" s="77" t="s">
-        <v>297</v>
       </c>
       <c r="S6" s="57"/>
       <c r="T6" s="77" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="U6" s="77" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="V6" s="77" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="W6" s="77" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="X6" s="57"/>
       <c r="Y6" s="57"/>
       <c r="Z6" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA6" s="77" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB6" s="77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC6" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD6" s="77" t="s">
         <v>313</v>
       </c>
-      <c r="AA6" s="77" t="s">
+      <c r="AE6" s="77" t="s">
         <v>314</v>
       </c>
-      <c r="AB6" s="77" t="s">
-        <v>309</v>
-      </c>
-      <c r="AC6" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD6" s="77" t="s">
+      <c r="AF6" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="AE6" s="77" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF6" s="77" t="s">
-        <v>317</v>
-      </c>
       <c r="AG6" s="77" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AH6" s="57"/>
       <c r="AI6" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ6" s="77" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK6" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL6" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="AJ6" s="77" t="s">
-        <v>301</v>
-      </c>
-      <c r="AK6" s="77" t="s">
-        <v>292</v>
-      </c>
-      <c r="AL6" s="77" t="s">
-        <v>302</v>
-      </c>
       <c r="AM6" s="77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AN6" s="77" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AO6" s="77" t="s">
+        <v>319</v>
+      </c>
+      <c r="AP6" s="77" t="s">
+        <v>320</v>
+      </c>
+      <c r="AQ6" s="77" t="s">
+        <v>316</v>
+      </c>
+      <c r="AR6" s="77" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS6" s="77" t="s">
         <v>321</v>
       </c>
-      <c r="AP6" s="77" t="s">
+      <c r="AT6" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="AQ6" s="77" t="s">
-        <v>318</v>
-      </c>
-      <c r="AR6" s="77" t="s">
-        <v>319</v>
-      </c>
-      <c r="AS6" s="77" t="s">
+      <c r="AU6" s="77" t="s">
         <v>323</v>
-      </c>
-      <c r="AT6" s="77" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU6" s="77" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -12008,7 +12035,7 @@
     </row>
     <row r="2" spans="1:16" s="47" customFormat="1" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -12031,13 +12058,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>19</v>
@@ -12058,7 +12085,7 @@
     </row>
     <row r="4" spans="1:16" s="47" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -12090,40 +12117,40 @@
         <v>24</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="H5" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="J5" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="K5" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="L5" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="M5" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="O5" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="P5" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="47" customFormat="1" ht="15">
@@ -12273,7 +12300,7 @@
     </row>
     <row r="18" spans="1:47" s="47" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="97" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B18" s="97"/>
       <c r="C18" s="97"/>
@@ -12304,61 +12331,61 @@
         <v>22</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="I19" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="32" t="s">
+      <c r="J19" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="K19" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="L19" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="32" t="s">
+      <c r="M19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="N19" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="O19" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="N19" s="32" t="s">
+      <c r="P19" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="Q19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="P19" s="32" t="s">
+      <c r="R19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="Q19" s="32" t="s">
+      <c r="S19" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="R19" s="32" t="s">
+      <c r="T19" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="S19" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>185</v>
-      </c>
       <c r="U19" s="48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V19" s="66"/>
       <c r="W19" s="66"/>
@@ -12395,7 +12422,7 @@
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20" s="62"/>
       <c r="G20" s="62"/>
@@ -12422,7 +12449,7 @@
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F21" s="62"/>
       <c r="G21" s="62"/>
@@ -12449,7 +12476,7 @@
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
       <c r="E22" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="62"/>
@@ -12476,7 +12503,7 @@
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
       <c r="E23" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
@@ -12503,7 +12530,7 @@
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
       <c r="E24" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
@@ -12530,7 +12557,7 @@
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
       <c r="E25" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
@@ -12557,7 +12584,7 @@
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
       <c r="E26" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
@@ -12584,7 +12611,7 @@
       <c r="C27" s="62"/>
       <c r="D27" s="62"/>
       <c r="E27" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
@@ -12611,7 +12638,7 @@
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
@@ -12638,7 +12665,7 @@
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
       <c r="E29" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -12665,7 +12692,7 @@
       <c r="C30" s="62"/>
       <c r="D30" s="62"/>
       <c r="E30" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
@@ -12692,7 +12719,7 @@
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
       <c r="E31" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -12719,7 +12746,7 @@
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
       <c r="E32" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
@@ -12746,7 +12773,7 @@
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
       <c r="E33" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
@@ -12773,7 +12800,7 @@
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
       <c r="E34" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
@@ -12800,7 +12827,7 @@
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
       <c r="E35" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F35" s="62"/>
       <c r="G35" s="62"/>
@@ -12827,7 +12854,7 @@
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
       <c r="E36" s="62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F36" s="62"/>
       <c r="G36" s="62"/>
@@ -12854,7 +12881,7 @@
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
       <c r="E37" s="62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
@@ -12881,7 +12908,7 @@
       <c r="C38" s="62"/>
       <c r="D38" s="62"/>
       <c r="E38" s="62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="62"/>
@@ -12908,7 +12935,7 @@
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
       <c r="E39" s="62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
@@ -12993,7 +13020,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="83" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -13016,13 +13043,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>19</v>
@@ -13043,7 +13070,7 @@
     </row>
     <row r="4" spans="1:16" s="47" customFormat="1" ht="27" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
@@ -13081,31 +13108,31 @@
         <v>18</v>
       </c>
       <c r="G5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="J5" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="K5" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="L5" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="M5" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="N5" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="O5" s="31" t="s">
         <v>274</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>276</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>42</v>
@@ -13840,7 +13867,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B2" s="103"/>
       <c r="C2" s="103"/>
@@ -13862,10 +13889,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>19</v>
@@ -13886,7 +13913,7 @@
     </row>
     <row r="4" spans="1:15" s="47" customFormat="1" ht="15.6">
       <c r="A4" s="94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="95"/>
@@ -13923,31 +13950,31 @@
         <v>25</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H5" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J5" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="K5" s="69" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="N5" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K5" s="69" t="s">
-        <v>246</v>
-      </c>
-      <c r="L5" s="69" t="s">
-        <v>278</v>
-      </c>
-      <c r="M5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="47" customFormat="1" ht="15">
@@ -14315,7 +14342,7 @@
     </row>
     <row r="27" spans="1:15" s="47" customFormat="1" ht="15.6">
       <c r="A27" s="94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B27" s="95"/>
       <c r="C27" s="95"/>
@@ -14350,25 +14377,25 @@
         <v>25</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K28" s="69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L28" s="69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M28" s="31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O28" s="12"/>
     </row>
